--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,45 +471,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,45 +518,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,45 +565,92 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,45 +612,92 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,44 +469,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +488,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -565,22 +535,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,17 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +582,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,12 +612,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,45 +629,92 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,14 +469,44 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>George Olasupo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Omoniyi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>03.02.1982</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Efon Alaaye</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Bielefeld</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -486,44 +516,14 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -535,22 +535,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -582,22 +582,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -607,17 +607,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -629,22 +629,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -676,45 +676,92 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>George Olasupo</t>
+          <t>Muaremi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Omoniyi</t>
+          <t>Shqipe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03.02.1982</t>
+          <t>16-03-2000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Efon Alaaye</t>
+          <t>Tetovo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>North Macedonia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -516,14 +516,44 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>George Olasupo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Omoniyi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>03.02.1982</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Efon Alaaye</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bielefeld</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -533,44 +563,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -582,22 +582,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -629,22 +629,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -676,22 +676,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -723,45 +723,92 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,106 +518,106 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="E5" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -629,22 +629,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -676,22 +676,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -701,17 +701,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -723,22 +723,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -770,45 +770,92 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,106 +565,106 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="E6" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -676,22 +676,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -723,22 +723,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -770,22 +770,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -800,12 +800,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -817,45 +817,92 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,106 +612,106 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -723,22 +723,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -770,22 +770,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -795,17 +795,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -817,22 +817,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -864,45 +864,92 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barhoumi</t>
+          <t>najmaldeen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ramzi</t>
+          <t>Shilan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15-02-1980</t>
+          <t>29-12-1980</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kheireddine</t>
+          <t>Sulaimaniyya</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Gronau</t>
+          <t>Lünen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,106 +659,106 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -770,22 +770,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -817,22 +817,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -842,17 +842,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -864,22 +864,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -911,45 +911,92 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,44 +469,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>najmaldeen</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Shilan</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>29-12-1980</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sulaimaniyya</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Lünen</t>
+          <t>Remscheid</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +488,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barhoumi</t>
+          <t>najmaldeen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ramzi</t>
+          <t>Shilan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15-02-1980</t>
+          <t>29-12-1980</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kheireddine</t>
+          <t>Sulaimaniyya</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +513,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Gronau</t>
+          <t>Lünen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +535,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,17 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +582,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,12 +612,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +629,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -689,12 +659,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,106 +676,106 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -817,22 +787,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -842,7 +812,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -864,22 +834,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -889,17 +859,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -911,22 +881,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -941,12 +911,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -958,45 +928,92 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,61 +469,61 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KOFFETO EPSE MOROU</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AWOROU</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-09-1995</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sokode</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>000</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>Remscheid</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>najmaldeen</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Shilan</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>29-12-1980</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sulaimaniyya</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Lünen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -535,22 +535,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barhoumi</t>
+          <t>najmaldeen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ramzi</t>
+          <t>Shilan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15-02-1980</t>
+          <t>29-12-1980</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kheireddine</t>
+          <t>Sulaimaniyya</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -560,17 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Gronau</t>
+          <t>Lünen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -582,22 +582,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -607,17 +607,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -629,22 +629,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -676,22 +676,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -723,106 +723,106 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -834,22 +834,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -881,22 +881,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -906,17 +906,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -928,22 +928,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -975,45 +975,92 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,106 +471,106 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Nizai</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Amrullah</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01-01-1999</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>KOFFETO EPSE MOROU</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>AWOROU</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>08-09-1995</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Sokode</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Togo</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Remscheid</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>najmaldeen</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Shilan</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>29-12-1980</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sulaimaniyya</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Lünen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -582,22 +582,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Barhoumi</t>
+          <t>najmaldeen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ramzi</t>
+          <t>Shilan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15-02-1980</t>
+          <t>29-12-1980</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kheireddine</t>
+          <t>Sulaimaniyya</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -607,17 +607,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Gronau</t>
+          <t>Lünen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -629,22 +629,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -676,22 +676,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -723,22 +723,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -770,106 +770,106 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -881,22 +881,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -928,22 +928,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -953,17 +953,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -975,22 +975,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1022,45 +1022,92 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nizai</t>
+          <t>Othman Hama Hussein</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amrullah</t>
+          <t>Amir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01-01-1999</t>
+          <t>14-10-1995</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Parwan</t>
+          <t>Sulaimaniah</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Düren</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,106 +518,106 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Nizai</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Amrullah</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>01-01-1999</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>KOFFETO EPSE MOROU</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>AWOROU</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>08-09-1995</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Sokode</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Togo</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Remscheid</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>najmaldeen</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Shilan</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>29-12-1980</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sulaimaniyya</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Lünen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -629,22 +629,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Barhoumi</t>
+          <t>najmaldeen</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ramzi</t>
+          <t>Shilan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15-02-1980</t>
+          <t>29-12-1980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kheireddine</t>
+          <t>Sulaimaniyya</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Gronau</t>
+          <t>Lünen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -676,22 +676,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -701,17 +701,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -723,22 +723,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -770,22 +770,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -800,12 +800,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -817,106 +817,106 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -928,22 +928,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -975,22 +975,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1000,17 +1000,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1022,22 +1022,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1069,45 +1069,92 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Othman Hama Hussein</t>
+          <t>Vata</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amir</t>
+          <t>Gjesika</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14-10-1995</t>
+          <t>11-01-2000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sulaimaniah</t>
+          <t>Burrel</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Düren</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nizai</t>
+          <t>Othman Hama Hussein</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amrullah</t>
+          <t>Amir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01-01-1999</t>
+          <t>14-10-1995</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Parwan</t>
+          <t>Sulaimaniah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Düren</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,106 +565,106 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Nizai</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amrullah</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>01-01-1999</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>KOFFETO EPSE MOROU</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>AWOROU</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>08-09-1995</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Sokode</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Togo</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Remscheid</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>najmaldeen</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Shilan</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>29-12-1980</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sulaimaniyya</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Lünen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -676,22 +676,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Barhoumi</t>
+          <t>najmaldeen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ramzi</t>
+          <t>Shilan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15-02-1980</t>
+          <t>29-12-1980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kheireddine</t>
+          <t>Sulaimaniyya</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -701,17 +701,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Gronau</t>
+          <t>Lünen</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -723,22 +723,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -770,22 +770,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -800,12 +800,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -817,22 +817,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -864,106 +864,106 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -975,22 +975,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1022,22 +1022,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1047,17 +1047,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1069,22 +1069,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1116,45 +1116,92 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vata</t>
+          <t>Chihanga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gjesika</t>
+          <t>Tapiwa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11-01-2000</t>
+          <t>15-10-1987</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Burrel</t>
+          <t>Gweru</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Othman Hama Hussein</t>
+          <t>Vata</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amir</t>
+          <t>Gjesika</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14-10-1995</t>
+          <t>11-01-2000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sulaimaniah</t>
+          <t>Burrel</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Düren</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nizai</t>
+          <t>Othman Hama Hussein</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amrullah</t>
+          <t>Amir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01-01-1999</t>
+          <t>14-10-1995</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Parwan</t>
+          <t>Sulaimaniah</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Düren</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,106 +612,106 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Nizai</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amrullah</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>01-01-1999</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>KOFFETO EPSE MOROU</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>AWOROU</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>08-09-1995</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Sokode</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Togo</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Remscheid</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>najmaldeen</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Shilan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>29-12-1980</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Sulaimaniyya</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Lünen</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -723,22 +723,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Barhoumi</t>
+          <t>najmaldeen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ramzi</t>
+          <t>Shilan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15-02-1980</t>
+          <t>29-12-1980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kheireddine</t>
+          <t>Sulaimaniyya</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Gronau</t>
+          <t>Lünen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -770,22 +770,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -795,17 +795,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -817,22 +817,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -864,22 +864,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -911,106 +911,106 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1022,22 +1022,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1069,22 +1069,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1094,17 +1094,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1116,22 +1116,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1163,45 +1163,92 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chihanga</t>
+          <t>Jaber</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tapiwa</t>
+          <t>Hanadi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15-10-1987</t>
+          <t>25-03-1970</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gweru</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vata</t>
+          <t>Chihanga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gjesika</t>
+          <t>Tapiwa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11-01-2000</t>
+          <t>15-10-1987</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Burrel</t>
+          <t>Gweru</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Othman Hama Hussein</t>
+          <t>Vata</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amir</t>
+          <t>Gjesika</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14-10-1995</t>
+          <t>11-01-2000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sulaimaniah</t>
+          <t>Burrel</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,17 +590,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Düren</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nizai</t>
+          <t>Othman Hama Hussein</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amrullah</t>
+          <t>Amir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01-01-1999</t>
+          <t>14-10-1995</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Parwan</t>
+          <t>Sulaimaniah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Düren</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,106 +659,106 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Nizai</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amrullah</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>01-01-1999</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>KOFFETO EPSE MOROU</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>AWOROU</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>08-09-1995</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Sokode</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Togo</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Remscheid</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>najmaldeen</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Shilan</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>29-12-1980</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Sulaimaniyya</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Lünen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -770,22 +770,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Barhoumi</t>
+          <t>najmaldeen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ramzi</t>
+          <t>Shilan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15-02-1980</t>
+          <t>29-12-1980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kheireddine</t>
+          <t>Sulaimaniyya</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -795,17 +795,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Gronau</t>
+          <t>Lünen</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -817,22 +817,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -842,17 +842,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -864,22 +864,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -894,12 +894,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -911,22 +911,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -958,106 +958,106 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1069,22 +1069,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1116,22 +1116,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1141,17 +1141,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1163,22 +1163,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1210,45 +1210,92 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jaber</t>
+          <t>Sharif</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hanadi</t>
+          <t>Hazem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25-03-1970</t>
+          <t>20-02-1987</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chihanga</t>
+          <t>Jaber</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tapiwa</t>
+          <t>Hanadi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15-10-1987</t>
+          <t>25-03-1970</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Gweru</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vata</t>
+          <t>Chihanga</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gjesika</t>
+          <t>Tapiwa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11-01-2000</t>
+          <t>15-10-1987</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Burrel</t>
+          <t>Gweru</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,17 +590,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Othman Hama Hussein</t>
+          <t>Vata</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amir</t>
+          <t>Gjesika</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14-10-1995</t>
+          <t>11-01-2000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sulaimaniah</t>
+          <t>Burrel</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,17 +637,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Düren</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nizai</t>
+          <t>Othman Hama Hussein</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amrullah</t>
+          <t>Amir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01-01-1999</t>
+          <t>14-10-1995</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Parwan</t>
+          <t>Sulaimaniah</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Düren</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,106 +706,106 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Nizai</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amrullah</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>01-01-1999</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>KOFFETO EPSE MOROU</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>AWOROU</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>08-09-1995</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Sokode</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Togo</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Remscheid</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>najmaldeen</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Shilan</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>29-12-1980</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Sulaimaniyya</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Lünen</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -817,22 +817,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Barhoumi</t>
+          <t>najmaldeen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ramzi</t>
+          <t>Shilan</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15-02-1980</t>
+          <t>29-12-1980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kheireddine</t>
+          <t>Sulaimaniyya</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -842,17 +842,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Gronau</t>
+          <t>Lünen</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -864,22 +864,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -911,22 +911,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -958,22 +958,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -988,12 +988,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1005,106 +1005,106 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1116,22 +1116,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1163,22 +1163,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1210,22 +1210,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1257,45 +1257,92 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sharif</t>
+          <t>Boakye</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hazem</t>
+          <t>Abigail</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20-02-1987</t>
+          <t>14-07-1990</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Kumasi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jaber</t>
+          <t>Sharif</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hanadi</t>
+          <t>Hazem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>25-03-1970</t>
+          <t>20-02-1987</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chihanga</t>
+          <t>Jaber</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tapiwa</t>
+          <t>Hanadi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15-10-1987</t>
+          <t>25-03-1970</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gweru</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,12 +590,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vata</t>
+          <t>Chihanga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gjesika</t>
+          <t>Tapiwa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11-01-2000</t>
+          <t>15-10-1987</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Burrel</t>
+          <t>Gweru</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,17 +637,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Othman Hama Hussein</t>
+          <t>Vata</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amir</t>
+          <t>Gjesika</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14-10-1995</t>
+          <t>11-01-2000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sulaimaniah</t>
+          <t>Burrel</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Düren</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nizai</t>
+          <t>Othman Hama Hussein</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amrullah</t>
+          <t>Amir</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01-01-1999</t>
+          <t>14-10-1995</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Parwan</t>
+          <t>Sulaimaniah</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -736,12 +736,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Düren</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,106 +753,106 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Nizai</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amrullah</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>01-01-1999</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>KOFFETO EPSE MOROU</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>AWOROU</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>08-09-1995</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Sokode</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Togo</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Remscheid</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>najmaldeen</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Shilan</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>29-12-1980</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Sulaimaniyya</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Lünen</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -864,22 +864,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Barhoumi</t>
+          <t>najmaldeen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ramzi</t>
+          <t>Shilan</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15-02-1980</t>
+          <t>29-12-1980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kheireddine</t>
+          <t>Sulaimaniyya</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Gronau</t>
+          <t>Lünen</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -911,22 +911,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -936,17 +936,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -958,22 +958,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -988,12 +988,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1005,22 +1005,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1052,106 +1052,106 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1163,22 +1163,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1210,22 +1210,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1235,17 +1235,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1257,22 +1257,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1287,12 +1287,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1304,45 +1304,92 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Boakye</t>
+          <t>Antwi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abigail</t>
+          <t>Akwasi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14-07-1990</t>
+          <t>10-10-1984</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kumasi</t>
+          <t>Accra</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Dorsten</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sharif</t>
+          <t>Boakye</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hazem</t>
+          <t>Abigail</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20-02-1987</t>
+          <t>14-07-1990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Kumasi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jaber</t>
+          <t>Sharif</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hanadi</t>
+          <t>Hazem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>25-03-1970</t>
+          <t>20-02-1987</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,12 +590,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chihanga</t>
+          <t>Jaber</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tapiwa</t>
+          <t>Hanadi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15-10-1987</t>
+          <t>25-03-1970</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gweru</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vata</t>
+          <t>Chihanga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gjesika</t>
+          <t>Tapiwa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11-01-2000</t>
+          <t>15-10-1987</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Burrel</t>
+          <t>Gweru</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Othman Hama Hussein</t>
+          <t>Vata</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amir</t>
+          <t>Gjesika</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14-10-1995</t>
+          <t>11-01-2000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sulaimaniah</t>
+          <t>Burrel</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Düren</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nizai</t>
+          <t>Othman Hama Hussein</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amrullah</t>
+          <t>Amir</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01-01-1999</t>
+          <t>14-10-1995</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Parwan</t>
+          <t>Sulaimaniah</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Düren</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,106 +800,106 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Nizai</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amrullah</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>01-01-1999</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>KOFFETO EPSE MOROU</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>AWOROU</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>08-09-1995</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Sokode</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Togo</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Remscheid</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>najmaldeen</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Shilan</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>29-12-1980</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Sulaimaniyya</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Lünen</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -911,22 +911,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Barhoumi</t>
+          <t>najmaldeen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ramzi</t>
+          <t>Shilan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15-02-1980</t>
+          <t>29-12-1980</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kheireddine</t>
+          <t>Sulaimaniyya</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -936,17 +936,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Gronau</t>
+          <t>Lünen</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -958,22 +958,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1005,22 +1005,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1052,22 +1052,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1082,12 +1082,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1099,106 +1099,106 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1210,22 +1210,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1257,22 +1257,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1282,17 +1282,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1304,22 +1304,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1351,45 +1351,92 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Antwi</t>
+          <t>Faheem</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Akwasi</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10-10-1984</t>
+          <t>24-01-1990</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Accra</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dorsten</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Boakye</t>
+          <t>Antwi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abigail</t>
+          <t>Akwasi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14-07-1990</t>
+          <t>10-10-1984</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kumasi</t>
+          <t>Accra</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Dorsten</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sharif</t>
+          <t>Boakye</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hazem</t>
+          <t>Abigail</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20-02-1987</t>
+          <t>14-07-1990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Kumasi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,12 +590,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jaber</t>
+          <t>Sharif</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hanadi</t>
+          <t>Hazem</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25-03-1970</t>
+          <t>20-02-1987</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chihanga</t>
+          <t>Jaber</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Tapiwa</t>
+          <t>Hanadi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15-10-1987</t>
+          <t>25-03-1970</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gweru</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Vata</t>
+          <t>Chihanga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gjesika</t>
+          <t>Tapiwa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11-01-2000</t>
+          <t>15-10-1987</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Burrel</t>
+          <t>Gweru</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Othman Hama Hussein</t>
+          <t>Vata</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amir</t>
+          <t>Gjesika</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14-10-1995</t>
+          <t>11-01-2000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sulaimaniah</t>
+          <t>Burrel</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Düren</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,22 +800,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nizai</t>
+          <t>Othman Hama Hussein</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amrullah</t>
+          <t>Amir</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01-01-1999</t>
+          <t>14-10-1995</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Parwan</t>
+          <t>Sulaimaniah</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Düren</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -847,106 +847,106 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Nizai</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Amrullah</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>01-01-1999</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>KOFFETO EPSE MOROU</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>AWOROU</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>08-09-1995</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Sokode</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Togo</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Remscheid</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>najmaldeen</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Shilan</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>29-12-1980</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Sulaimaniyya</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Lünen</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -958,22 +958,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Barhoumi</t>
+          <t>najmaldeen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ramzi</t>
+          <t>Shilan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15-02-1980</t>
+          <t>29-12-1980</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kheireddine</t>
+          <t>Sulaimaniyya</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Gronau</t>
+          <t>Lünen</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1005,22 +1005,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1052,22 +1052,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1082,12 +1082,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1099,22 +1099,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1146,106 +1146,106 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1257,22 +1257,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1304,22 +1304,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1351,22 +1351,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1398,45 +1398,92 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>

--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcB12405.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Faheem</t>
+          <t>Alsalloum</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muhammad</t>
+          <t>Khazna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24-01-1990</t>
+          <t>10.02.1986</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Halsak</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Oberhausen</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -518,22 +518,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Antwi</t>
+          <t>Faheem</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Akwasi</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10-10-1984</t>
+          <t>24-01-1990</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Accra</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Dorsten</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,22 +565,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Boakye</t>
+          <t>Antwi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abigail</t>
+          <t>Akwasi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14-07-1990</t>
+          <t>10-10-1984</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kumasi</t>
+          <t>Accra</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Dorsten</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -612,22 +612,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sharif</t>
+          <t>Boakye</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hazem</t>
+          <t>Abigail</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20-02-1987</t>
+          <t>14-07-1990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Aleppo</t>
+          <t>Kumasi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Syrian Arab Republic</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -659,22 +659,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jaber</t>
+          <t>Sharif</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hanadi</t>
+          <t>Hazem</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25-03-1970</t>
+          <t>20-02-1987</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tripoli</t>
+          <t>Aleppo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Syrian Arab Republic</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chihanga</t>
+          <t>Jaber</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tapiwa</t>
+          <t>Hanadi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15-10-1987</t>
+          <t>25-03-1970</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gweru</t>
+          <t>Tripoli</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -731,12 +731,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -753,22 +753,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vata</t>
+          <t>Chihanga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gjesika</t>
+          <t>Tapiwa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11-01-2000</t>
+          <t>15-10-1987</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Burrel</t>
+          <t>Gweru</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Gelsenkirchen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -800,22 +800,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Othman Hama Hussein</t>
+          <t>Vata</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amir</t>
+          <t>Gjesika</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14-10-1995</t>
+          <t>11-01-2000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sulaimaniah</t>
+          <t>Burrel</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Düren</t>
+          <t>Gelsenkirchen</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -847,22 +847,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nizai</t>
+          <t>Othman Hama Hussein</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Amrullah</t>
+          <t>Amir</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01-01-1999</t>
+          <t>14-10-1995</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Parwan</t>
+          <t>Sulaimaniah</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -877,12 +877,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Düren</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -894,106 +894,106 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Nizai</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amrullah</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>01-01-1999</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Herr</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>KOFFETO EPSE MOROU</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>AWOROU</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>08-09-1995</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Sokode</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Togo</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Remscheid</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>najmaldeen</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Shilan</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>29-12-1980</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Sulaimaniyya</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Lünen</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1005,22 +1005,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Barhoumi</t>
+          <t>najmaldeen</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ramzi</t>
+          <t>Shilan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15-02-1980</t>
+          <t>29-12-1980</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kheireddine</t>
+          <t>Sulaimaniyya</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1030,17 +1030,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Gronau</t>
+          <t>Lünen</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1052,22 +1052,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Barhoumi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bidemi Adebola</t>
+          <t>Ramzi</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>29-01-1982</t>
+          <t>15-02-1980</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Owo</t>
+          <t>Kheireddine</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1077,17 +1077,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Gronau</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1099,22 +1099,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>N’Dri Marielle Angella</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Brou</t>
+          <t>Bidemi Adebola</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10-06-1997</t>
+          <t>29-01-1982</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Asse-Bonoua</t>
+          <t>Owo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ivory Coast / Cote d`Ivoire</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Essen</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1146,22 +1146,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Muaremi</t>
+          <t>N’Dri Marielle Angella</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Shqipe</t>
+          <t>Brou</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16-03-2000</t>
+          <t>10-06-1997</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tetovo</t>
+          <t>Asse-Bonoua</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1176,12 +1176,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>North Macedonia</t>
+          <t>Ivory Coast / Cote d`Ivoire</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Essen</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1193,106 +1193,106 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Muaremi</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Shqipe</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16-03-2000</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tetovo</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Essen</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>George Olasupo</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Omoniyi</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>03.02.1982</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Efon Alaaye</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Herr</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Bielefeld</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Magini</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Okiemute</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>24-08-1987</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Oghara</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Frau</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Dortmund</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1304,22 +1304,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Emmanuel</t>
+          <t>Magini</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Okojie</t>
+          <t>Okiemute</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16-08-1977</t>
+          <t>24-08-1987</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Uromi</t>
+          <t>Oghara</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Herr</t>
+          <t>Frau</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1351,22 +1351,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tawaha</t>
+          <t>Emmanuel</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rouba Marwan Mahmoud</t>
+          <t>Okojie</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13-12-1994</t>
+          <t>16-08-1977</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Irbid-Jordan</t>
+          <t>Uromi</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1376,17 +1376,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Frau</t>
+          <t>Herr</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Lippstadt</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1398,22 +1398,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nanyunja</t>
+          <t>Tawaha</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Desire Manjeri</t>
+          <t>Rouba Marwan Mahmoud</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01-07-2004</t>
+          <t>13-12-1994</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Kampala</t>
+          <t>Irbid-Jordan</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1428,12 +1428,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Lippstadt</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1445,45 +1445,92 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Nanyunja</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Desire Manjeri</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>01-07-2004</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Kampala</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Ali</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Nazlie</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>14-10-1999</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>EFRIN</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Syrian Arab Republic</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Dortmund</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
